--- a/files/skill.xlsx
+++ b/files/skill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Desktop\inecer.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7BBAD-850A-4ACA-8EA4-36942009DEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1195C76-3A92-4D88-9F5D-F02570D0F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>23/05/2022 au 27/06/2022</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
     <t>☑ SISR</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Adresse URL du portfolio : https://inecer.github.io/</t>
+  </si>
+  <si>
+    <t>✘</t>
   </si>
 </sst>
 </file>
@@ -678,9 +678,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -704,51 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1108,83 +1108,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
+      <c r="A3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1207,8 +1207,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1264,16 +1264,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1314,24 +1314,24 @@
       <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1377,20 +1377,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1432,22 +1432,22 @@
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1489,24 +1489,24 @@
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1815,16 +1815,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2177,16 +2177,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2631,6 +2631,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2638,11 +2643,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/files/skill.xlsx
+++ b/files/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Desktop\inecer.github.io\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1195C76-3A92-4D88-9F5D-F02570D0F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982E3715-81D1-4F4A-838D-E7DF32F8D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -125,9 +122,6 @@
     <t>Portfolio</t>
   </si>
   <si>
-    <t>Stage 1er année</t>
-  </si>
-  <si>
     <t>14/10/2022 au 04/01/2023</t>
   </si>
   <si>
@@ -140,16 +134,28 @@
     <t>23/05/2022 au 27/06/2022</t>
   </si>
   <si>
-    <t>☑ SISR</t>
-  </si>
-  <si>
-    <t>NOM et prénom : Necer Ilian</t>
-  </si>
-  <si>
     <t>Adresse URL du portfolio : https://inecer.github.io/</t>
   </si>
   <si>
     <t>✘</t>
+  </si>
+  <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>Création d'un site</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>☑ SLAM</t>
+  </si>
+  <si>
+    <t>▢ SISR</t>
+  </si>
+  <si>
+    <t>NOM et prénom : NECER Ilian</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -684,15 +690,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,29 +756,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1108,84 +1120,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="A3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>19</v>
+      <c r="A6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1207,8 +1219,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1264,16 +1276,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1312,26 +1324,24 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1371,26 +1381,24 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1430,24 +1438,24 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>34</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1487,27 +1495,19 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="45">
+        <v>44470</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1815,16 +1815,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1862,14 +1862,26 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2177,16 +2189,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2224,14 +2236,26 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2631,11 +2655,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2643,6 +2662,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/files/skill.xlsx
+++ b/files/skill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Desktop\inecer.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982E3715-81D1-4F4A-838D-E7DF32F8D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EEF40-9E0C-41CB-A77E-B9CE8ECB0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -95,9 +95,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -156,6 +153,12 @@
   </si>
   <si>
     <t>NOM et prénom : NECER Ilian</t>
+  </si>
+  <si>
+    <t>Projet Quiz</t>
+  </si>
+  <si>
+    <t>N° candidat : 01948305583</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -690,9 +693,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -717,49 +765,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1112,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1120,84 +1126,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="46"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>18</v>
+      <c r="B6" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1219,8 +1225,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1276,16 +1282,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1324,25 +1330,23 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="H9" s="17"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1381,25 +1385,23 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="H10" s="17"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1438,24 +1440,22 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1495,13 +1495,13 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="45">
+        <v>31</v>
+      </c>
+      <c r="B12" s="23">
         <v>44470</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1545,10 +1545,16 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="47">
+        <v>44470</v>
+      </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1815,16 +1821,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="A19" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1863,24 +1869,22 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2189,16 +2193,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="A27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2237,24 +2241,22 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="D28" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -2655,6 +2657,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2662,11 +2669,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/files/skill.xlsx
+++ b/files/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilian\Desktop\inecer.github.io\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5EEF40-9E0C-41CB-A77E-B9CE8ECB0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20546EB9-C06A-42F8-8C8F-81A8C10F21FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -110,27 +110,9 @@
     <t>Centre de formation : ORT Montreuil</t>
   </si>
   <si>
-    <t>Auto-ecole web</t>
-  </si>
-  <si>
-    <t>Auto-ecole software</t>
-  </si>
-  <si>
     <t>Portfolio</t>
   </si>
   <si>
-    <t>14/10/2022 au 04/01/2023</t>
-  </si>
-  <si>
-    <t>14/10/2022 au à venir</t>
-  </si>
-  <si>
-    <t>27/10/2022 au à venir</t>
-  </si>
-  <si>
-    <t>23/05/2022 au 27/06/2022</t>
-  </si>
-  <si>
     <t>Adresse URL du portfolio : https://inecer.github.io/</t>
   </si>
   <si>
@@ -140,9 +122,6 @@
     <t>GLPI</t>
   </si>
   <si>
-    <t>Création d'un site</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -155,10 +134,22 @@
     <t>NOM et prénom : NECER Ilian</t>
   </si>
   <si>
-    <t>Projet Quiz</t>
-  </si>
-  <si>
     <t>N° candidat : 01948305583</t>
+  </si>
+  <si>
+    <t>Site pour le stockage de matériel sous Laravel</t>
+  </si>
+  <si>
+    <t>Visionnage de plaque microscopique sous W</t>
+  </si>
+  <si>
+    <t>Auto-ecole web sous Symfony</t>
+  </si>
+  <si>
+    <t>Auto-ecole software sous Java</t>
+  </si>
+  <si>
+    <t>Projet Quiz sous PHP</t>
   </si>
 </sst>
 </file>
@@ -625,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,6 +757,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1153,14 +1150,14 @@
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="45" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="46"/>
@@ -1180,15 +1177,15 @@
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -1330,20 +1327,20 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44835</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
@@ -1385,20 +1382,20 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="49">
+        <v>44835</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
@@ -1440,22 +1437,22 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="48">
+        <v>44835</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1495,13 +1492,13 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B12" s="23">
         <v>44470</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1546,14 +1543,14 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="47">
         <v>44470</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1871,20 +1868,20 @@
       <c r="A20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>28</v>
+      <c r="B20" s="23">
+        <v>44682</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2241,22 +2238,24 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B28" s="23">
+        <v>44927</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="H28" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
